--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.0\InputData\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47EDEF-9248-48E7-9DF3-7E91C3F421DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25820" windowHeight="11970"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
-    <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
+    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
+    <sheet name="HPEbP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -164,16 +174,40 @@
   </si>
   <si>
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
+  </si>
+  <si>
+    <t>There is no reason that these number should be different for Texas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, I did find an error in their calculations. </t>
+  </si>
+  <si>
+    <t>They were included waste heat as an energy balance input.</t>
+  </si>
+  <si>
+    <t>for example, page 228 of the NREL report shows gas production as 162 kBtu gas + 2 kBtu electricity = 118 kBtu hydrogen + 46 kBtu waste heat</t>
+  </si>
+  <si>
+    <t>so, the efficiency (output hydrogen energy vs input energy) would be 118/(162+2)=72%</t>
+  </si>
+  <si>
+    <t>previously, this spreadhseet (cell 'HPEbP'B3) was calculating the efficiency as 118/(162+2+46)=56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the IEA number for natural gas reforming efficiency is 76%, so that's a good check that their initial calculation was wrong. </t>
+  </si>
+  <si>
+    <t>Their other calculations did not include the same mistake.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +227,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -267,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,24 +589,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.7265625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,120 +614,120 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -693,22 +735,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -728,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +790,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -765,7 +807,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -782,7 +824,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>28</v>
@@ -800,7 +842,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -820,7 +862,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -837,7 +879,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -854,7 +896,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>30</v>
@@ -872,7 +914,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -892,7 +934,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -909,7 +951,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -926,7 +968,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>30</v>
@@ -944,8 +986,8 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -959,7 +1001,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -978,23 +1020,241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43D066-1A83-4493-A511-5C01ADB15357}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1101,7 +1361,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1242,148 +1502,148 @@
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>118/(162+2+46)</f>
-        <v>0.56190476190476191</v>
+        <f>118/(162+2)</f>
+        <v>0.71951219512195119</v>
       </c>
       <c r="C3" s="6">
         <f>B3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:O3" si="0">C3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="P3" s="13">
         <f>O3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" ref="Q3:AI3" si="1">P3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="R3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="S3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="T3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="U3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="W3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="X3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="Y3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="Z3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AA3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AB3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AC3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="AI3" s="12">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+        <v>0.71951219512195119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1784,7 @@
         <v>0.57004830917874394</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1925,7 @@
         <v>0.46274509803921571</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>

--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.0\InputData\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47EDEF-9248-48E7-9DF3-7E91C3F421DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25820" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
-    <sheet name="HPEbP" sheetId="2" r:id="rId4"/>
+    <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -174,40 +164,16 @@
   </si>
   <si>
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
-  </si>
-  <si>
-    <t>There is no reason that these number should be different for Texas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, I did find an error in their calculations. </t>
-  </si>
-  <si>
-    <t>They were included waste heat as an energy balance input.</t>
-  </si>
-  <si>
-    <t>for example, page 228 of the NREL report shows gas production as 162 kBtu gas + 2 kBtu electricity = 118 kBtu hydrogen + 46 kBtu waste heat</t>
-  </si>
-  <si>
-    <t>so, the efficiency (output hydrogen energy vs input energy) would be 118/(162+2)=72%</t>
-  </si>
-  <si>
-    <t>previously, this spreadhseet (cell 'HPEbP'B3) was calculating the efficiency as 118/(162+2+46)=56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the IEA number for natural gas reforming efficiency is 76%, so that's a good check that their initial calculation was wrong. </t>
-  </si>
-  <si>
-    <t>Their other calculations did not include the same mistake.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +193,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -308,7 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,24 +547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+    <col min="2" max="2" width="98.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,120 +572,120 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -735,22 +693,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -770,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -790,7 +748,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -807,7 +765,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -824,7 +782,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>28</v>
@@ -842,7 +800,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -862,7 +820,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -879,7 +837,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -896,7 +854,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>30</v>
@@ -914,7 +872,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -934,7 +892,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -951,7 +909,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -968,7 +926,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>30</v>
@@ -986,8 +944,8 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +959,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1020,241 +978,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43D066-1A83-4493-A511-5C01ADB15357}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1361,7 +1101,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1502,148 +1242,148 @@
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>118/(162+2)</f>
-        <v>0.71951219512195119</v>
+        <f>118/(162+2+46)</f>
+        <v>0.56190476190476191</v>
       </c>
       <c r="C3" s="6">
         <f>B3</f>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:O3" si="0">C3</f>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="P3" s="13">
         <f>O3</f>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" ref="Q3:AI3" si="1">P3</f>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="R3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="S3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="T3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="U3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="V3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="W3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="X3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="Y3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="Z3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AA3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AB3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AC3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
+        <v>0.56190476190476191</v>
       </c>
       <c r="AI3" s="12">
         <f t="shared" si="1"/>
-        <v>0.71951219512195119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.56190476190476191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1524,7 @@
         <v>0.57004830917874394</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1665,7 @@
         <v>0.46274509803921571</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>

--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.0\InputData\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47EDEF-9248-48E7-9DF3-7E91C3F421DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D586A615-64AA-4490-B1C1-EF8741A038FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
-    <sheet name="HPEbP" sheetId="2" r:id="rId4"/>
+    <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -176,28 +176,7 @@
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
   </si>
   <si>
-    <t>There is no reason that these number should be different for Texas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, I did find an error in their calculations. </t>
-  </si>
-  <si>
-    <t>They were included waste heat as an energy balance input.</t>
-  </si>
-  <si>
-    <t>for example, page 228 of the NREL report shows gas production as 162 kBtu gas + 2 kBtu electricity = 118 kBtu hydrogen + 46 kBtu waste heat</t>
-  </si>
-  <si>
-    <t>so, the efficiency (output hydrogen energy vs input energy) would be 118/(162+2)=72%</t>
-  </si>
-  <si>
-    <t>previously, this spreadhseet (cell 'HPEbP'B3) was calculating the efficiency as 118/(162+2+46)=56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the IEA number for natural gas reforming efficiency is 76%, so that's a good check that their initial calculation was wrong. </t>
-  </si>
-  <si>
-    <t>Their other calculations did not include the same mistake.</t>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -207,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +206,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,12 +275,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -601,12 +572,18 @@
     <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,57 +591,57 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -739,7 +716,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,224 +997,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43D066-1A83-4493-A511-5C01ADB15357}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1245,7 +1004,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1059,7 @@
       <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="13">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -1421,83 +1180,83 @@
         <f>N2*'IEA Data'!$D$18</f>
         <v>0.72283380681818132</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <f>O2*'IEA Data'!$E$18</f>
         <v>0.7253666557451437</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="6">
         <f>P2*'IEA Data'!$E$18</f>
         <v>0.72790837991234292</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="6">
         <f>Q2*'IEA Data'!$E$18</f>
         <v>0.73045901041910288</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="6">
         <f>R2*'IEA Data'!$E$18</f>
         <v>0.73301857847372121</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="6">
         <f>S2*'IEA Data'!$E$18</f>
         <v>0.73558711539385124</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="6">
         <f>T2*'IEA Data'!$E$18</f>
         <v>0.73816465260688491</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="6">
         <f>U2*'IEA Data'!$E$18</f>
         <v>0.74075122165033747</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="6">
         <f>V2*'IEA Data'!$E$18</f>
         <v>0.74334685417223334</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="6">
         <f>W2*'IEA Data'!$E$18</f>
         <v>0.74595158193149347</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="6">
         <f>X2*'IEA Data'!$E$18</f>
         <v>0.74856543679832355</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="6">
         <f>Y2*'IEA Data'!$E$18</f>
         <v>0.7511884507546045</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="6">
         <f>Z2*'IEA Data'!$E$18</f>
         <v>0.75382065589428315</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="6">
         <f>AA2*'IEA Data'!$E$18</f>
         <v>0.7564620844237655</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="6">
         <f>AB2*'IEA Data'!$E$18</f>
         <v>0.75911276866231048</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="6">
         <f>AC2*'IEA Data'!$E$18</f>
         <v>0.76177274104242554</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="6">
         <f>AD2*'IEA Data'!$E$18</f>
         <v>0.76444203411026324</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="6">
         <f>AE2*'IEA Data'!$E$18</f>
         <v>0.76712068052601967</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="6">
         <f>AF2*'IEA Data'!$E$18</f>
         <v>0.76980871306433407</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="6">
         <f>AG2*'IEA Data'!$E$18</f>
         <v>0.77250616461468979</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="6">
         <f>AH2*'IEA Data'!$E$18</f>
         <v>0.77521306818181679</v>
       </c>
@@ -1562,83 +1321,83 @@
         <f t="shared" si="0"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <f>O3</f>
         <v>0.71951219512195119</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:AI3" si="1">P3</f>
         <v>0.71951219512195119</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AF3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AG3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="6">
         <f t="shared" si="1"/>
         <v>0.71951219512195119</v>
       </c>
@@ -1703,83 +1462,83 @@
         <f t="shared" si="2"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="P4" s="13">
-        <f t="shared" si="2"/>
-        <v>0.57004830917874394</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="P4" s="12">
+        <f t="shared" si="2"/>
+        <v>0.57004830917874394</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" ref="Q4:AI4" si="3">P4</f>
         <v>0.57004830917874394</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
@@ -1844,83 +1603,83 @@
         <f t="shared" si="2"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="P5" s="13">
-        <f t="shared" si="2"/>
-        <v>0.46274509803921571</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="P5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.46274509803921571</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" ref="Q5:AI5" si="4">P5</f>
         <v>0.46274509803921571</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
@@ -1984,83 +1743,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" ref="Q6:AI6" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10499DD2-7318-451E-9808-596E76F4B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EA61C-757C-475C-B06D-DD0B50AFCBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="510" windowWidth="21630" windowHeight="13245" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
-    <sheet name="POX" sheetId="4" r:id="rId3"/>
-    <sheet name="HPEbP" sheetId="2" r:id="rId4"/>
+    <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -57,6 +56,9 @@
     <t>biomass gasification</t>
   </si>
   <si>
+    <t>thermochemical water splitting</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -66,6 +68,27 @@
     <t>source fuel to produce one unit of energy of hydrogen.</t>
   </si>
   <si>
+    <t>Thermochemical Water Splitting</t>
+  </si>
+  <si>
+    <t>For thermochemical water splitting, the heat source considered</t>
+  </si>
+  <si>
+    <t>by Acar and Dincer is nuclear energy (e.g. heat from</t>
+  </si>
+  <si>
+    <t>a nuclear power plant).  It is also possible to use solar thermal</t>
+  </si>
+  <si>
+    <t>energy.  Neither heat from nuclear plants nor heat from the sun</t>
+  </si>
+  <si>
+    <t>are tracked by the EPS at this time, so the efficiency value in</t>
+  </si>
+  <si>
+    <t>this variable for thermochemical water splitting does not affect</t>
+  </si>
+  <si>
     <t>Long Term</t>
   </si>
   <si>
@@ -123,6 +146,9 @@
     <t>Assumptions annex, Page 3</t>
   </si>
   <si>
+    <t>the model's results.  We arbitrarily assign a value of 0.</t>
+  </si>
+  <si>
     <t>Efficiency (dimensionless)</t>
   </si>
   <si>
@@ -154,36 +180,6 @@
   </si>
   <si>
     <t>natural gas reforming with CCS</t>
-  </si>
-  <si>
-    <t>hydrocarbon partial oxidation</t>
-  </si>
-  <si>
-    <t>Efficiency Data (POX)</t>
-  </si>
-  <si>
-    <t>Journal of Power and Energy Engineering</t>
-  </si>
-  <si>
-    <t>Hydrogen Production Technologies Overview</t>
-  </si>
-  <si>
-    <t>https://www.scirp.org/journal/paperinformation?paperid=90227</t>
-  </si>
-  <si>
-    <t>Section 3.2</t>
-  </si>
-  <si>
-    <t>From El-Shafie et al.</t>
-  </si>
-  <si>
-    <t>Mostafa El-Shafie et al.</t>
-  </si>
-  <si>
-    <t>60-75%</t>
-  </si>
-  <si>
-    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -569,135 +565,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.7265625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -714,46 +712,46 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="1" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E1" s="11">
         <v>2030</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -765,12 +763,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7">
         <v>0.64</v>
@@ -782,12 +780,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8">
         <v>1.4999999999999999E-2</v>
@@ -799,13 +797,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9">
         <v>95000</v>
@@ -817,15 +815,15 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>910</v>
@@ -837,12 +835,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>0.76</v>
@@ -854,12 +852,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8">
         <v>4.7E-2</v>
@@ -871,13 +869,13 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9">
         <v>8.9</v>
@@ -889,15 +887,15 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>2670</v>
@@ -909,12 +907,12 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
         <v>0.6</v>
@@ -926,12 +924,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
         <v>0.05</v>
@@ -943,13 +941,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9">
         <v>20.2</v>
@@ -961,10 +959,10 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>2017</v>
@@ -976,9 +974,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <f>(E3/D3)^(1/(2030-2017))</f>
@@ -995,59 +993,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A8BC32-7095-4848-8418-2D28C06105DB}">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <f>AVERAGE(0.6,0.75)</f>
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -1152,7 +1116,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1257,7 @@
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1398,7 @@
         <v>0.71951219512195119</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1539,7 @@
         <v>0.57004830917874394</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1716,150 +1680,149 @@
         <v>0.46274509803921571</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
-        <f>POX!B5</f>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" ref="Q6:AI6" si="5">P6</f>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="T6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="U6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="W6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="X6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="6">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6">
         <f>B2</f>
@@ -1998,9 +1961,9 @@
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6">
         <f>B3</f>
